--- a/Data/Item.xlsx
+++ b/Data/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="146">
   <si>
     <t xml:space="preserve">code</t>
   </si>

--- a/Data/Item.xlsx
+++ b/Data/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="146">
   <si>
     <t xml:space="preserve">code</t>
   </si>
